--- a/mapping/mml_progress_course_mapping.xlsx
+++ b/mapping/mml_progress_course_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="136">
   <si>
     <t>Archetype</t>
     <phoneticPr fontId="1"/>
@@ -333,13 +333,6 @@
     <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0001]/items[openEHR-EHR-OBSERVATION.story.v1 and name/value='Story/History']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.symptom.v1 and name/value='Symptom']/items[at0002]</t>
   </si>
   <si>
-    <t>openEHR-EHR-OBSERVATION.third_party_observation.v1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-OBSERVATION.third_party_observation.v1 and name/value='Carer observation']/data[at0001]/events[at0002]/data[at0003]/items[at0005]</t>
-  </si>
-  <si>
     <t>openEHR-EHR-OBSERVATION.exam.v1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -365,41 +358,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>openEHR-EHR-OBSERVATION.lab_test.v1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Result</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-OBSERVATION.lab_test.v1 and name/value='Laboratory test']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0078 and name/value='Result']</t>
   </si>
   <si>
-    <t>openEHR-EHR-INSTRUCTION.medication_order.v1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Comment or Overall Direction</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v1 and name/value='Medication order']/activities[at0001]/description[at0002]/items[at0035 and name/value='Comment']</t>
   </si>
   <si>
-    <t>Medication Instruction Id</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v1 and name/value='Medication order']/protocol[at0031]/items[at0032 and name/value='Medication Instruction Id']</t>
-  </si>
-  <si>
-    <t>Laboratory test result identifier</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-OBSERVATION.lab_test.v1 and name/value='Laboratory test']/protocol[at0004]/items[at0068]</t>
-  </si>
-  <si>
     <t>openEHR-EHR-EVALUATION.clinical_synopsis.v1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -407,25 +371,72 @@
     <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0003]/items[openEHR-EHR-EVALUATION.clinical_synopsis.v1 and name/value='Clinical Synopsis']/data[at0001]/items[at0002]</t>
   </si>
   <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-OBSERVATION.progress_note.v1 and name/value='Progress Note']/data[at0001]/events[at0002]/data[at0003]/items[at0004]</t>
+  </si>
+  <si>
+    <t>*openEHR-EHR-INSTRUCTION.request.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Service requested</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0004]/items[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0121]</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0004]/items[openEHR-EHR-INSTRUCTION.medication_order.v1 and name/value='Medication order']/activities[at0001]/description[at0002]/items[at0035 and name/value='Comment']</t>
+  </si>
+  <si>
+    <t>Procedure requested</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0004]/items[openEHR-EHR-INSTRUCTION.request-procedure.v1 and name/value='Procedure request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0121]</t>
+  </si>
+  <si>
+    <t>openEHR-EHR-INSTRUCTION.care_plan.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0004]/items[openEHR-EHR-INSTRUCTION.care_plan.v1 and name/value='Care Plan']/activities[at0001]/description[at0004]/items[at0007]</t>
+  </si>
+  <si>
+    <t>mmlPc:ProgressCourseModule</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>openEHR-EHR-OBSERVATION.progress_note.v1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-OBSERVATION.progress_note.v1 and name/value='Progress Note']/data[at0001]/events[at0002]/data[at0003]/items[at0004]</t>
-  </si>
-  <si>
-    <t>*openEHR-EHR-INSTRUCTION.request.v1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*1 CommentとOverall directionのどちらが適当か</t>
-    <rPh sb="33" eb="35">
-      <t>テキトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*2 検査オーダーには検体検査、画像、病理といったものが含まれるためHeath service一般とした</t>
+    <t>Progress Notes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Progress Notes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-OBSERVATION.progress_note.v1 and name/value='Objective notes']/data[at0001]/events[at0002]/data[at0003]/items[at0004]</t>
+  </si>
+  <si>
+    <t>openEHR-EHR-CLUSTER.citation.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-OBSERVATION.exam.v1 and name/value='Physical examination findings']/protocol[at0007]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]</t>
+  </si>
+  <si>
+    <t>URI to original data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*2 検査オーダーには検体検査、画像、病理といったものが含まれるためHealth serviceという一般的なサービスとして定義した</t>
     <rPh sb="3" eb="5">
       <t>ケンサ</t>
     </rPh>
@@ -444,41 +455,48 @@
     <rPh sb="28" eb="29">
       <t>フク</t>
     </rPh>
-    <rPh sb="47" eb="49">
-      <t>イッパン</t>
+    <rPh sb="51" eb="54">
+      <t>イッパンテキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Service requested</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0004]/items[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0121]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0004]/items[openEHR-EHR-INSTRUCTION.medication_order.v1 and name/value='Medication order']/activities[at0001]/description[at0002]/items[at0035 and name/value='Comment']</t>
-  </si>
-  <si>
-    <t>openEHR-EHR-INSTRUCTION.request-procedure.v1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Procedure requested</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0004]/items[openEHR-EHR-INSTRUCTION.request-procedure.v1 and name/value='Procedure request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0121]</t>
-  </si>
-  <si>
-    <t>openEHR-EHR-INSTRUCTION.care_plan.v1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0004]/items[openEHR-EHR-INSTRUCTION.care_plan.v1 and name/value='Care Plan']/activities[at0001]/description[at0004]/items[at0007]</t>
-  </si>
-  <si>
-    <t>mmlPc:ProgressCourseModule</t>
+    <rPh sb="62" eb="64">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0004]/items[openEHR-EHR-INSTRUCTION.request.v1 and name/value='testOrder']/activities[at0001 and name/value='Request']/description[at0009]/items[at0121]</t>
+  </si>
+  <si>
+    <t>*1)Service name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*1)Servicenameには"Test order"と記録する</t>
+    <rPh sb="29" eb="31">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*2)Service name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*2)Service nameには"rxOrder"と記録する</t>
+    <rPh sb="27" eb="29">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*3)Service nameには"txOrder"と記録する</t>
+    <rPh sb="27" eb="29">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*3)Service name</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -554,7 +572,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -572,6 +590,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -874,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -898,7 +919,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B2" s="2"/>
       <c r="H2" t="s">
@@ -1181,13 +1202,13 @@
       </c>
       <c r="F17" s="3"/>
       <c r="H17" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="J17" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
@@ -1204,7 +1225,7 @@
       </c>
       <c r="F18" s="3"/>
       <c r="H18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
@@ -1221,7 +1242,7 @@
       </c>
       <c r="F19" s="3"/>
       <c r="H19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
@@ -1238,10 +1259,10 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="I20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
@@ -1261,7 +1282,7 @@
         <v>93</v>
       </c>
       <c r="J21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
@@ -1280,13 +1301,13 @@
       </c>
       <c r="F22" s="3"/>
       <c r="H22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
@@ -1316,6 +1337,15 @@
         <v>15</v>
       </c>
       <c r="F24" s="3"/>
+      <c r="H24" t="s">
+        <v>124</v>
+      </c>
+      <c r="I24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J24" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
@@ -1333,13 +1363,13 @@
       </c>
       <c r="F25" s="3"/>
       <c r="H25" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="J25" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
@@ -1355,11 +1385,11 @@
         <v>15</v>
       </c>
       <c r="F26" s="3"/>
+      <c r="H26" t="s">
+        <v>124</v>
+      </c>
       <c r="I26" t="s">
-        <v>116</v>
-      </c>
-      <c r="J26" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
@@ -1378,13 +1408,13 @@
       </c>
       <c r="F27" s="3"/>
       <c r="H27" t="s">
-        <v>111</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>112</v>
+        <v>120</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="J27" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
@@ -1400,11 +1430,11 @@
         <v>15</v>
       </c>
       <c r="F28" s="3"/>
+      <c r="H28" t="s">
+        <v>124</v>
+      </c>
       <c r="I28" t="s">
-        <v>114</v>
-      </c>
-      <c r="J28" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
@@ -1426,10 +1456,10 @@
         <v>120</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="J29" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
@@ -1445,6 +1475,12 @@
         <v>15</v>
       </c>
       <c r="F30" s="3"/>
+      <c r="H30" t="s">
+        <v>124</v>
+      </c>
+      <c r="I30" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
@@ -1460,7 +1496,7 @@
       </c>
       <c r="F31" s="3"/>
       <c r="H31" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
@@ -1482,7 +1518,7 @@
         <v>80</v>
       </c>
       <c r="J32" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
@@ -1515,96 +1551,90 @@
       </c>
       <c r="F34" s="3"/>
       <c r="H34" s="5" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J34" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="E35" s="3"/>
       <c r="F35" s="3"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="J35" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F36" s="3"/>
       <c r="H36" t="s">
-        <v>111</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="J36" t="s">
-        <v>127</v>
+        <v>124</v>
+      </c>
+      <c r="I36" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E37" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F37" s="3"/>
+      <c r="H37" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J37" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="H38" t="s">
-        <v>128</v>
-      </c>
+      <c r="H38" s="5"/>
       <c r="I38" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="J38" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>19</v>
@@ -1615,13 +1645,19 @@
         <v>15</v>
       </c>
       <c r="F39" s="3"/>
+      <c r="H39" t="s">
+        <v>124</v>
+      </c>
+      <c r="I39" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3" t="s">
@@ -1631,24 +1667,92 @@
         <v>9</v>
       </c>
       <c r="F40" s="3"/>
-      <c r="H40" t="s">
+      <c r="H40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="H42" t="s">
+        <v>124</v>
+      </c>
+      <c r="I42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="H43" t="s">
+        <v>117</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J43" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B46" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I46" t="s">
         <v>131</v>
       </c>
-      <c r="I40" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J40" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="B42" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="B43" s="4" t="s">
-        <v>124</v>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I47" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I48" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/mml_progress_course_mapping.xlsx
+++ b/mapping/mml_progress_course_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="154">
   <si>
     <t>Archetype</t>
     <phoneticPr fontId="1"/>
@@ -279,12 +279,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis.v1 and name/value='Problem/Diagnosis']/data[at0001]/items[at0002]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis.v1 and name/value='Problem/Diagnosis']/data[at0001]/items[at0027 and name/value='Related Item']/items[at0028]</t>
-  </si>
-  <si>
     <t>openEHR-EHR-SECTION.soap.v1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -297,20 +291,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-OBSERVATION.progress_note.v1 and name/value='Progress Note']/data[at0001]/events[at0002]/data[at0003]/items[at0004]</t>
-  </si>
-  <si>
     <t>openEHR-EHR-OBSERVATION.story.v1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0001]/items[openEHR-EHR-OBSERVATION.story.v1 and name/value='Story/History']/data[at0001]/events[at0002]/data[at0003]/items[at0004]</t>
-  </si>
-  <si>
-    <t>Story/History</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Clinical description</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -323,16 +307,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Course/Onset description</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0001]/items[openEHR-EHR-OBSERVATION.story.v1 and name/value='Story/History']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.symptom.v1 and name/value='Symptom']/items[at0033]/items[at0060]</t>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0001]/items[openEHR-EHR-OBSERVATION.story.v1 and name/value='Story/History']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.symptom.v1 and name/value='Symptom']/items[at0002]</t>
-  </si>
-  <si>
     <t>openEHR-EHR-OBSERVATION.exam.v1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -345,63 +322,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-OBSERVATION.exam.v1 and name/value='Physical Examination Findings']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.exam-generic.v1 and name/value='Examination of a named body part']/items[at0.9]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-OBSERVATION.exam.v1 and name/value='Physical Examination Findings']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.exam-generic.v1 and name/value='Examination of a named body part']/items[at0002]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-OBSERVATION.exam.v1 and name/value='Physical Examination Findings']/data[at0001]/events[at0002]/data[at0003]/items[at0006 and name/value='Interpretation']</t>
-  </si>
-  <si>
     <t>Interpretation</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-OBSERVATION.lab_test.v1 and name/value='Laboratory test']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0078 and name/value='Result']</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-SECTION.medication_order_list.v1]/items[openEHR-EHR-INSTRUCTION.medication_order.v1 and name/value='Medication order']/activities[at0001]/description[at0002]/items[at0035 and name/value='Comment']</t>
-  </si>
-  <si>
     <t>openEHR-EHR-EVALUATION.clinical_synopsis.v1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0003]/items[openEHR-EHR-EVALUATION.clinical_synopsis.v1 and name/value='Clinical Synopsis']/data[at0001]/items[at0002]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-OBSERVATION.progress_note.v1 and name/value='Progress Note']/data[at0001]/events[at0002]/data[at0003]/items[at0004]</t>
-  </si>
-  <si>
     <t>*openEHR-EHR-INSTRUCTION.request.v1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Service requested</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0004]/items[openEHR-EHR-INSTRUCTION.request.v1 and name/value='Healthcare service request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0121]</t>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0004]/items[openEHR-EHR-INSTRUCTION.medication_order.v1 and name/value='Medication order']/activities[at0001]/description[at0002]/items[at0035 and name/value='Comment']</t>
-  </si>
-  <si>
-    <t>Procedure requested</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0004]/items[openEHR-EHR-INSTRUCTION.request-procedure.v1 and name/value='Procedure request']/activities[at0001 and name/value='Request']/description[at0009]/items[at0121]</t>
-  </si>
-  <si>
     <t>openEHR-EHR-INSTRUCTION.care_plan.v1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0004]/items[openEHR-EHR-INSTRUCTION.care_plan.v1 and name/value='Care Plan']/activities[at0001]/description[at0004]/items[at0007]</t>
-  </si>
-  <si>
     <t>mmlPc:ProgressCourseModule</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -418,14 +354,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-OBSERVATION.progress_note.v1 and name/value='Objective notes']/data[at0001]/events[at0002]/data[at0003]/items[at0004]</t>
-  </si>
-  <si>
     <t>openEHR-EHR-CLUSTER.citation.v1</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-OBSERVATION.exam.v1 and name/value='Physical examination findings']/protocol[at0007]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]</t>
   </si>
   <si>
     <t>URI to original data</t>
@@ -464,9 +394,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0004]/items[openEHR-EHR-INSTRUCTION.request.v1 and name/value='testOrder']/activities[at0001 and name/value='Request']/description[at0009]/items[at0121]</t>
-  </si>
-  <si>
     <t>*1)Service name</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -497,6 +424,176 @@
   </si>
   <si>
     <t>*3)Service name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>data type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-OBSERVATION.progress_note.v1 and name/value='Progress Note']/data[at0001]/events[at0002]/data[at0003]/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis.v1 and name/value='Problem/diagnosis']/data[at0001]/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.problem_diagnosis.v1 and name/value='Problem/Diagnosis']/data[at0001]/items[at0027 and name/value='Related Item']/items[at0028]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0001]/items[openEHR-EHR-OBSERVATION.story.v1 and name/value='Story/History']/data[at0001]/events[at0002]/data[at0003]/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Story</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Course description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Symptom name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*値は"Subjective note"に固定</t>
+    <rPh sb="1" eb="2">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0001]/items[openEHR-EHR-OBSERVATION.story.v1 and name/value='Story/History']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.symptom.v1 and name/value='Symptom']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0001]/items[openEHR-EHR-OBSERVATION.story.v1 and name/value='Story/History']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.symptom.v1 and name/value='Symptom']/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-OBSERVATION.progress_note.v1 and name/value='Objective notes']/data[at0001]/events[at0002]/data[at0003]/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-OBSERVATION.exam.v1 and name/value='Physical examination findings']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[openEHR-EHR-CLUSTER.exam-generic.v1 and name/value='Examination of a named body part']/items[at0.9]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-OBSERVATION.exam.v1 and name/value='Physical examination findings']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[openEHR-EHR-CLUSTER.exam-generic.v1 and name/value='Examination of a named body part']/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-OBSERVATION.exam.v1 and name/value='Physical examination findings']/data[at0001]/events[at0002 and name/value='Any event']/data[at0003]/items[at0006 and name/value='Interpretation']/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_URI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-SECTION.adhoc.v1]/items[openEHR-EHR-SECTION.adhoc.v1 and name/value='Test result']/items[openEHR-EHR-EVALUATION.citation.v1 and name/value='Citation']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-SECTION.adhoc.v1]/items[openEHR-EHR-SECTION.adhoc.v1 and name/value='Test result']/items[openEHR-EHR-OBSERVATION.progress_note.v1 and name/value='Progress Note']/data[at0001]/events[at0002]/data[at0003]/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_URI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_URI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-SECTION.adhoc.v1]/items[openEHR-EHR-SECTION.adhoc.v1 and name/value='RxRecord']/items[openEHR-EHR-OBSERVATION.progress_note.v1 and name/value='Progress Note']/data[at0001]/events[at0002]/data[at0003]/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-OBSERVATION.exam.v1 and name/value='Physical examination findings']/protocol[at0007]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-SECTION.adhoc.v1]/items[openEHR-EHR-SECTION.adhoc.v1 and name/value='RxRecord']/items[openEHR-EHR-EVALUATION.citation.v1 and name/value='Citation']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-SECTION.adhoc.v1]/items[openEHR-EHR-SECTION.adhoc.v1 and name/value='TxRecord']/items[openEHR-EHR-OBSERVATION.progress_note.v1 and name/value='Progress Note']/data[at0001]/events[at0002]/data[at0003]/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-SECTION.adhoc.v1]/items[openEHR-EHR-SECTION.adhoc.v1 and name/value='TxRecord']/items[openEHR-EHR-EVALUATION.citation.v1 and name/value='Citation ']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0003]/items[openEHR-EHR-EVALUATION.clinical_synopsis.v1 and name/value='Clinical Synopsis']/data[at0001]/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0004]/items[openEHR-EHR-INSTRUCTION.request.v1 and name/value='testOrder']/activities[at0001 and name/value='Request']/description[at0009]/items[at0135]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0004]/items[openEHR-EHR-INSTRUCTION.request.v1 and name/value='testOrder']/activities[at0001 and name/value='Request']/description[at0009]/items[at0121]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0004]/items[openEHR-EHR-INSTRUCTION.request.v1 and name/value='testOrder']/protocol[at0008]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0004]/items[openEHR-EHR-INSTRUCTION.request.v1 and name/value='RxOrder']/activities[at0001 and name/value='Request']/description[at0009]/items[at0135]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0004]/items[openEHR-EHR-INSTRUCTION.request.v1 and name/value='RxOrder']/protocol[at0008]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0004]/items[openEHR-EHR-INSTRUCTION.request.v1 and name/value='RxOrder']/activities[at0001 and name/value='Request']/description[at0009]/items[at0121]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0004]/items[openEHR-EHR-INSTRUCTION.request.v1 and name/value='TxOrder']/activities[at0001 and name/value='Request']/description[at0009]/items[at0135]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0004]/items[openEHR-EHR-INSTRUCTION.request.v1 and name/value='TxOrder']/activities[at0001 and name/value='Request']/description[at0009]/items[at0121]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0004]/items[openEHR-EHR-INSTRUCTION.request.v1 and name/value='TxOrder']/protocol[at0008]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0004]/items[openEHR-EHR-INSTRUCTION.care_plan.v1 and name/value='Care Plan']/activities[at0001]/description[at0004]/items[at0007]/value</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -895,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="T16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AH45" sqref="AH45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -908,18 +1005,19 @@
     <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="8" max="8" width="53.375" customWidth="1"/>
-    <col min="9" max="9" width="31.5" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
+    <col min="10" max="10" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B2" s="2"/>
       <c r="H2" t="s">
@@ -929,10 +1027,13 @@
         <v>11</v>
       </c>
       <c r="J2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>16</v>
@@ -950,7 +1051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -965,7 +1066,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -979,16 +1080,19 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="H5" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+      <c r="K5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -1002,7 +1106,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1014,7 +1118,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1031,7 +1135,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -1050,10 +1154,13 @@
         <v>82</v>
       </c>
       <c r="J9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+      <c r="K9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
@@ -1069,11 +1176,14 @@
       <c r="I10" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="J10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J10" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1087,10 +1197,10 @@
       </c>
       <c r="F11" s="3"/>
       <c r="H11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -1104,16 +1214,19 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I12" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
@@ -1127,10 +1240,10 @@
       </c>
       <c r="F13" s="3"/>
       <c r="H13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -1144,13 +1257,16 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="I14" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="J14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+      <c r="K14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -1166,111 +1282,117 @@
       </c>
       <c r="F15" s="3"/>
       <c r="I15" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H16" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="H17" t="s">
-        <v>120</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="J17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="3"/>
       <c r="H18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F19" s="3"/>
       <c r="H19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="H20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="I20" t="s">
-        <v>101</v>
-      </c>
-      <c r="J20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
@@ -1279,480 +1401,587 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="I21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+      <c r="K21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="H22" t="s">
-        <v>99</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>105</v>
+      <c r="I22" t="s">
+        <v>88</v>
       </c>
       <c r="J22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+      <c r="K22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H23" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="H24" t="s">
-        <v>124</v>
-      </c>
-      <c r="I24" t="s">
-        <v>126</v>
-      </c>
-      <c r="J24" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="F25" s="3"/>
       <c r="H25" t="s">
-        <v>120</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>122</v>
+        <v>103</v>
+      </c>
+      <c r="I25" t="s">
+        <v>104</v>
       </c>
       <c r="J25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+      <c r="K25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E26" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F26" s="3"/>
       <c r="H26" t="s">
-        <v>124</v>
-      </c>
-      <c r="I26" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F27" s="3"/>
       <c r="H27" t="s">
-        <v>120</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>122</v>
+        <v>103</v>
+      </c>
+      <c r="I27" t="s">
+        <v>104</v>
       </c>
       <c r="J27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+      <c r="K27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E28" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F28" s="3"/>
       <c r="H28" t="s">
-        <v>124</v>
-      </c>
-      <c r="I28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F29" s="3"/>
       <c r="H29" t="s">
-        <v>120</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>122</v>
+        <v>103</v>
+      </c>
+      <c r="I29" t="s">
+        <v>104</v>
       </c>
       <c r="J29" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+      <c r="K29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E30" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F30" s="3"/>
       <c r="H30" t="s">
-        <v>124</v>
-      </c>
-      <c r="I30" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F31" s="3"/>
       <c r="H31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+      <c r="I31" t="s">
+        <v>104</v>
+      </c>
+      <c r="J31" t="s">
+        <v>134</v>
+      </c>
+      <c r="K31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="H32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3" t="s">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="I32" t="s">
+      <c r="F33" s="3"/>
+      <c r="I33" t="s">
         <v>80</v>
       </c>
-      <c r="J32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
+      <c r="J33" t="s">
+        <v>117</v>
+      </c>
+      <c r="K33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="3"/>
-      <c r="H34" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="D35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F35" s="3"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="J35" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="H35" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="3"/>
-      <c r="H36" t="s">
-        <v>124</v>
-      </c>
-      <c r="I36" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
+      <c r="F37" s="3"/>
+      <c r="H37" t="s">
+        <v>103</v>
+      </c>
+      <c r="I37" t="s">
+        <v>104</v>
+      </c>
+      <c r="J37" t="s">
+        <v>133</v>
+      </c>
+      <c r="K37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3" t="s">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="3"/>
-      <c r="H37" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="J37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="H38" s="5"/>
+      <c r="H38" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="I38" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="3"/>
-      <c r="H39" t="s">
-        <v>124</v>
-      </c>
-      <c r="I39" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
+      <c r="F40" s="3"/>
+      <c r="H40" t="s">
+        <v>103</v>
+      </c>
+      <c r="I40" t="s">
+        <v>104</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="K40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3" t="s">
+      <c r="C41" s="3"/>
+      <c r="D41" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="3"/>
-      <c r="H40" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J40" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="H41" s="5"/>
+      <c r="H41" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="I41" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K42" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="F42" s="3"/>
-      <c r="H42" t="s">
-        <v>124</v>
-      </c>
-      <c r="I42" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="F43" s="3"/>
       <c r="H43" t="s">
+        <v>103</v>
+      </c>
+      <c r="I43" t="s">
+        <v>104</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="K43" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="H44" t="s">
+        <v>98</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J44" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="I43" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J43" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B45" s="4"/>
-    </row>
-    <row r="46" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B46" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I46" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B47" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="I47" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="I48" t="s">
-        <v>134</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.15">
+      <c r="I49" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/mml_progress_course_mapping.xlsx
+++ b/mapping/mml_progress_course_mapping.xlsx
@@ -305,9 +305,6 @@
   <si>
     <t>Description</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0001]/items[openEHR-EHR-OBSERVATION.story.v1 and name/value='Story/History']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.symptom.v1 and name/value='Symptom']/items[at0033]/items[at0060]</t>
   </si>
   <si>
     <t>openEHR-EHR-OBSERVATION.exam.v1</t>
@@ -594,6 +591,10 @@
   </si>
   <si>
     <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0004]/items[openEHR-EHR-INSTRUCTION.care_plan.v1 and name/value='Care Plan']/activities[at0001]/description[at0004]/items[at0007]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0001]/items[openEHR-EHR-OBSERVATION.story.v1 and name/value='Story/History']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.symptom.v1 and name/value='Symptom']/items[at0033]/items[at0060]/value</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -994,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AH45" sqref="AH45"/>
+    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1017,7 +1018,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2"/>
       <c r="H2" t="s">
@@ -1027,7 +1028,7 @@
         <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K2" t="s">
         <v>1</v>
@@ -1086,10 +1087,10 @@
         <v>86</v>
       </c>
       <c r="J5" t="s">
+        <v>113</v>
+      </c>
+      <c r="K5" t="s">
         <v>114</v>
-      </c>
-      <c r="K5" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
@@ -1154,10 +1155,10 @@
         <v>82</v>
       </c>
       <c r="J9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
@@ -1177,10 +1178,10 @@
         <v>83</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
@@ -1217,13 +1218,13 @@
         <v>87</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
@@ -1257,13 +1258,13 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="I14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K14" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
@@ -1285,10 +1286,10 @@
         <v>90</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
@@ -1299,16 +1300,16 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="H16" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K16" t="s">
         <v>123</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K16" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
@@ -1341,16 +1342,16 @@
       </c>
       <c r="F18" s="3"/>
       <c r="H18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="J18" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
@@ -1367,7 +1368,7 @@
       </c>
       <c r="F19" s="3"/>
       <c r="H19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
@@ -1384,7 +1385,7 @@
       </c>
       <c r="F20" s="3"/>
       <c r="H20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
@@ -1401,13 +1402,13 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="I21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
@@ -1427,10 +1428,10 @@
         <v>88</v>
       </c>
       <c r="J22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
@@ -1449,16 +1450,16 @@
       </c>
       <c r="F23" s="3"/>
       <c r="H23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
@@ -1489,16 +1490,16 @@
       </c>
       <c r="F25" s="3"/>
       <c r="H25" t="s">
+        <v>102</v>
+      </c>
+      <c r="I25" t="s">
         <v>103</v>
       </c>
-      <c r="I25" t="s">
-        <v>104</v>
-      </c>
       <c r="J25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
@@ -1517,16 +1518,16 @@
       </c>
       <c r="F26" s="3"/>
       <c r="H26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
@@ -1543,16 +1544,16 @@
       </c>
       <c r="F27" s="3"/>
       <c r="H27" t="s">
+        <v>102</v>
+      </c>
+      <c r="I27" t="s">
         <v>103</v>
       </c>
-      <c r="I27" t="s">
-        <v>104</v>
-      </c>
       <c r="J27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
@@ -1571,16 +1572,16 @@
       </c>
       <c r="F28" s="3"/>
       <c r="H28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
@@ -1597,16 +1598,16 @@
       </c>
       <c r="F29" s="3"/>
       <c r="H29" t="s">
+        <v>102</v>
+      </c>
+      <c r="I29" t="s">
         <v>103</v>
       </c>
-      <c r="I29" t="s">
-        <v>104</v>
-      </c>
       <c r="J29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
@@ -1625,16 +1626,16 @@
       </c>
       <c r="F30" s="3"/>
       <c r="H30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
@@ -1651,16 +1652,16 @@
       </c>
       <c r="F31" s="3"/>
       <c r="H31" t="s">
+        <v>102</v>
+      </c>
+      <c r="I31" t="s">
         <v>103</v>
       </c>
-      <c r="I31" t="s">
-        <v>104</v>
-      </c>
       <c r="J31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
@@ -1677,7 +1678,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="H32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
@@ -1699,10 +1700,10 @@
         <v>80</v>
       </c>
       <c r="J33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
@@ -1735,16 +1736,16 @@
       </c>
       <c r="F35" s="3"/>
       <c r="H35" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J35" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K35" t="s">
         <v>141</v>
-      </c>
-      <c r="K35" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
@@ -1756,13 +1757,13 @@
       <c r="F36" s="3"/>
       <c r="H36" s="5"/>
       <c r="I36" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
@@ -1779,16 +1780,16 @@
       </c>
       <c r="F37" s="3"/>
       <c r="H37" t="s">
+        <v>102</v>
+      </c>
+      <c r="I37" t="s">
         <v>103</v>
       </c>
-      <c r="I37" t="s">
-        <v>104</v>
-      </c>
       <c r="J37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
@@ -1807,16 +1808,16 @@
       </c>
       <c r="F38" s="3"/>
       <c r="H38" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I38" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K38" t="s">
         <v>145</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K38" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
@@ -1828,13 +1829,13 @@
       <c r="F39" s="3"/>
       <c r="H39" s="5"/>
       <c r="I39" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
@@ -1851,16 +1852,16 @@
       </c>
       <c r="F40" s="3"/>
       <c r="H40" t="s">
+        <v>102</v>
+      </c>
+      <c r="I40" t="s">
         <v>103</v>
       </c>
-      <c r="I40" t="s">
-        <v>104</v>
-      </c>
       <c r="J40" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
@@ -1879,16 +1880,16 @@
       </c>
       <c r="F41" s="3"/>
       <c r="H41" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I41" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K41" t="s">
         <v>149</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K41" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
@@ -1900,13 +1901,13 @@
       <c r="F42" s="3"/>
       <c r="H42" s="5"/>
       <c r="I42" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
@@ -1923,16 +1924,16 @@
       </c>
       <c r="F43" s="3"/>
       <c r="H43" t="s">
+        <v>102</v>
+      </c>
+      <c r="I43" t="s">
         <v>103</v>
       </c>
-      <c r="I43" t="s">
-        <v>104</v>
-      </c>
       <c r="J43" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
@@ -1951,16 +1952,16 @@
       </c>
       <c r="F44" s="3"/>
       <c r="H44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>90</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
@@ -1968,20 +1969,20 @@
     </row>
     <row r="47" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B47" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="I48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/mml_progress_course_mapping.xlsx
+++ b/mapping/mml_progress_course_mapping.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skoba\OneDrive\ドキュメント\GitHub\mml\mapping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="15240" windowHeight="8160"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="13560" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="168">
   <si>
     <t>Archetype</t>
     <phoneticPr fontId="1"/>
@@ -595,6 +600,57 @@
   </si>
   <si>
     <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0001]/items[openEHR-EHR-OBSERVATION.story.v1 and name/value='Story/History']/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.symptom.v1 and name/value='Symptom']/items[at0033]/items[at0060]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlCm:contentType</t>
+  </si>
+  <si>
+    <t>Citation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_MULTIMEDIA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlCm:medicalRole</t>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlCm:title</t>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmlCm:href</t>
+  </si>
+  <si>
+    <t>#REQUIRED</t>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.citation.v1]/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1]/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.citation.v1]/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1]/items[at0003]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-EVALUATION.citation.v1]/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1]/items[at0002]/value</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -641,7 +697,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -664,13 +720,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -692,6 +763,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -702,12 +782,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -749,7 +832,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -784,7 +867,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -993,30 +1076,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="25.875" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="25.86328125" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="11.1328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="15.375" customWidth="1"/>
-    <col min="10" max="10" width="9.875" customWidth="1"/>
+    <col min="9" max="9" width="19.53125" customWidth="1"/>
+    <col min="10" max="10" width="15.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>98</v>
       </c>
@@ -1034,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>16</v>
@@ -1052,7 +1135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1067,7 +1150,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1093,7 +1176,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -1107,344 +1190,354 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="I7" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="I8" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="K8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="I9" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="K9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="I10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="H8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="I9" t="s">
-        <v>82</v>
-      </c>
-      <c r="J9" t="s">
-        <v>116</v>
-      </c>
-      <c r="K9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="I10" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="K10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="H11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="H12" t="s">
-        <v>87</v>
-      </c>
-      <c r="I12" t="s">
-        <v>119</v>
-      </c>
-      <c r="J12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="I13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" t="s">
         <v>116</v>
       </c>
-      <c r="K12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="H13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="3"/>
+      <c r="K13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="F14" s="3"/>
-      <c r="I14" t="s">
-        <v>120</v>
-      </c>
-      <c r="J14" t="s">
-        <v>116</v>
+      <c r="I14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="K14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="H15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="I15" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="K15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="H16" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="J16" s="4" t="s">
+      <c r="H16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16" t="s">
         <v>116</v>
       </c>
       <c r="K16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="H18" t="s">
-        <v>99</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>113</v>
+      <c r="I18" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" t="s">
+        <v>116</v>
       </c>
       <c r="K18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E19" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="H19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="I19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="H20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H20" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F21" s="3"/>
-      <c r="I21" t="s">
-        <v>93</v>
-      </c>
-      <c r="J21" t="s">
-        <v>116</v>
-      </c>
-      <c r="K21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F22" s="3"/>
-      <c r="I22" t="s">
-        <v>88</v>
-      </c>
-      <c r="J22" t="s">
-        <v>116</v>
+      <c r="H22" t="s">
+        <v>99</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="K22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
         <v>9</v>
       </c>
@@ -1452,141 +1545,115 @@
       <c r="H23" t="s">
         <v>91</v>
       </c>
-      <c r="I23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="K23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="D25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="H25" t="s">
-        <v>102</v>
-      </c>
       <c r="I25" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="J25" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="K25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="I26" t="s">
+        <v>88</v>
+      </c>
+      <c r="J26" t="s">
+        <v>116</v>
+      </c>
+      <c r="K26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="H26" t="s">
-        <v>99</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="K26" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="F27" s="3"/>
       <c r="H27" t="s">
-        <v>102</v>
-      </c>
-      <c r="I27" t="s">
-        <v>103</v>
-      </c>
-      <c r="J27" t="s">
-        <v>132</v>
+        <v>91</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="K27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="3"/>
-      <c r="H28" t="s">
-        <v>99</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="K28" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>19</v>
@@ -1604,18 +1671,18 @@
         <v>103</v>
       </c>
       <c r="J29" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
@@ -1632,15 +1699,15 @@
         <v>101</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>19</v>
@@ -1658,330 +1725,438 @@
         <v>103</v>
       </c>
       <c r="J31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K31" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F32" s="3"/>
       <c r="H32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="H33" t="s">
+        <v>102</v>
+      </c>
+      <c r="I33" t="s">
+        <v>103</v>
+      </c>
+      <c r="J33" t="s">
+        <v>133</v>
+      </c>
+      <c r="K33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="I33" t="s">
-        <v>80</v>
-      </c>
-      <c r="J33" t="s">
-        <v>116</v>
-      </c>
-      <c r="K33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H34" t="s">
+        <v>99</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F35" s="3"/>
-      <c r="H35" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>140</v>
+      <c r="H35" t="s">
+        <v>102</v>
+      </c>
+      <c r="I35" t="s">
+        <v>103</v>
+      </c>
+      <c r="J35" t="s">
+        <v>133</v>
       </c>
       <c r="K35" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F36" s="3"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="K36" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E37" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F37" s="3"/>
-      <c r="H37" t="s">
-        <v>102</v>
-      </c>
       <c r="I37" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="J37" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="K37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F38" s="3"/>
-      <c r="H38" s="5" t="s">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="H39" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I38" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="K38" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="H39" s="5"/>
       <c r="I39" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="K39" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="K40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="3"/>
-      <c r="H40" t="s">
+      <c r="F41" s="3"/>
+      <c r="H41" t="s">
         <v>102</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I41" t="s">
         <v>103</v>
       </c>
-      <c r="J40" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="K40" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3" t="s">
+      <c r="J41" t="s">
+        <v>132</v>
+      </c>
+      <c r="K41" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="3"/>
-      <c r="H41" s="5" t="s">
+      <c r="F42" s="3"/>
+      <c r="H42" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I41" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="K41" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="H42" s="5"/>
       <c r="I42" s="4" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>116</v>
       </c>
       <c r="K42" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="F43" s="3"/>
-      <c r="H43" t="s">
-        <v>102</v>
-      </c>
-      <c r="I43" t="s">
-        <v>103</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="K43" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="F44" s="3"/>
       <c r="H44" t="s">
+        <v>102</v>
+      </c>
+      <c r="I44" t="s">
+        <v>103</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="H45" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K45" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K46" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="H47" t="s">
+        <v>102</v>
+      </c>
+      <c r="I47" t="s">
+        <v>103</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K47" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="H48" t="s">
         <v>97</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="I48" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="J48" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K48" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B46" s="4"/>
-    </row>
-    <row r="47" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B47" s="4" t="s">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="2:9" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I51" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="I48" t="s">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I49" t="s">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1998,7 +2173,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2011,7 +2186,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mapping/mml_progress_course_mapping.xlsx
+++ b/mapping/mml_progress_course_mapping.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="190">
   <si>
     <t>Archetype</t>
     <phoneticPr fontId="1"/>
@@ -527,22 +527,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-OBSERVATION.exam.v1 and name/value='Physical examination findings']/protocol[at0007]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-SECTION.adhoc.v1]/items[openEHR-EHR-SECTION.adhoc.v1 and name/value='RxRecord']/items[openEHR-EHR-EVALUATION.citation.v1 and name/value='Citation']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-SECTION.adhoc.v1]/items[openEHR-EHR-SECTION.adhoc.v1 and name/value='TxRecord']/items[openEHR-EHR-OBSERVATION.progress_note.v1 and name/value='Progress Note']/data[at0001]/events[at0002]/data[at0003]/items[at0004]/value</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0002]/items[openEHR-EHR-SECTION.adhoc.v1]/items[openEHR-EHR-SECTION.adhoc.v1 and name/value='TxRecord']/items[openEHR-EHR-EVALUATION.citation.v1 and name/value='Citation ']/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0003]/items[openEHR-EHR-EVALUATION.clinical_synopsis.v1 and name/value='Clinical Synopsis']/data[at0001]/items[at0002]/value</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -559,10 +547,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0004]/items[openEHR-EHR-INSTRUCTION.request.v1 and name/value='testOrder']/protocol[at0008]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Description</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -571,10 +555,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0004]/items[openEHR-EHR-INSTRUCTION.request.v1 and name/value='RxOrder']/protocol[at0008]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0004]/items[openEHR-EHR-INSTRUCTION.request.v1 and name/value='RxOrder']/activities[at0001 and name/value='Request']/description[at0009]/items[at0121]/value</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -591,10 +571,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0004]/items[openEHR-EHR-INSTRUCTION.request.v1 and name/value='TxOrder']/protocol[at0008]/items[openEHR-EHR-CLUSTER.citation.v1 and name/value='Citation']/items[at0002]/value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/content[openEHR-EHR-SECTION.soap.v1 and name/value='SOAP']/items[at0004]/items[openEHR-EHR-INSTRUCTION.care_plan.v1 and name/value='Care Plan']/activities[at0001]/description[at0004]/items[at0007]/value</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -651,6 +627,118 @@
   </si>
   <si>
     <t>/content[openEHR-EHR-EVALUATION.citation.v1]/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1]/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1]/items[at0002]/items[openEHR-EHR-OBSERVATION.exam.v1]/data[at0001]/events/content[openEHR-EHR-SECTION.soap.v1]/items[at0002]/items[openEHR-EHR-OBSERVATION.exam.v1]/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.citation.v1]/items[at0001][at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.citation.v1]/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1]/items[at0002]/items[openEHR-EHR-OBSERVATION.exam.v1]/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.citation.v1]/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1]/items[at0002]/items[openEHR-EHR-OBSERVATION.exam.v1]/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.citation.v1]/items[at0003]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1]/items[at0002]/items[openEHR-EHR-OBSERVATION.exam.v1]/data[at0001]/events[at0002]/data[at0003]/items[openEHR-EHR-CLUSTER.citation.v1]/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1]/items[at0002]/items[openEHR-EHR-SECTION.adhoc.v1]/items[openEHR-EHR-SECTION.adhoc.v1 and name/value='Test result']/items[openEHR-EHR-EVALUATION.citation.v1]/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1]/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1]/items[at0002]/items[openEHR-EHR-SECTION.adhoc.v1]/items[openEHR-EHR-SECTION.adhoc.v1 and name/value='Test result']/items[openEHR-EHR-EVALUATION.citation.v1]/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1]/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1]/items[at0002]/items[openEHR-EHR-SECTION.adhoc.v1]/items[openEHR-EHR-SECTION.adhoc.v1 and name/value='Test result']/items[openEHR-EHR-EVALUATION.citation.v1]/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1]/items[at0003]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1]/items[at0002]/items[openEHR-EHR-SECTION.adhoc.v1]/items[openEHR-EHR-SECTION.adhoc.v1 and name/value='Test result']/items[openEHR-EHR-EVALUATION.citation.v1]/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1]/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1]/items[at0002]/items[openEHR-EHR-SECTION.adhoc.v1]/items[openEHR-EHR-SECTION.adhoc.v1 and name/value='RxRecord']/items[openEHR-EHR-EVALUATION.citation.v1]/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1]/items[at0003]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1]/items[at0002]/items[openEHR-EHR-SECTION.adhoc.v1]/items[openEHR-EHR-SECTION.adhoc.v1 and name/value='RxRecord']/items[openEHR-EHR-EVALUATION.citation.v1]/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1]/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1]/items[at0002]/items[openEHR-EHR-SECTION.adhoc.v1]/items[openEHR-EHR-SECTION.adhoc.v1 and name/value='RxRecord']/items[openEHR-EHR-EVALUATION.citation.v1]/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1]/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1]/items[at0002]/items[openEHR-EHR-SECTION.adhoc.v1]/items[openEHR-EHR-SECTION.adhoc.v1 and name/value='TxRecord']/items[openEHR-EHR-EVALUATION.citation.v1]/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1]/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1]/items[at0002]/items[openEHR-EHR-SECTION.adhoc.v1]/items[openEHR-EHR-SECTION.adhoc.v1 and name/value='TxRecord']/items[openEHR-EHR-EVALUATION.citation.v1]/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1]/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1]/items[at0002]/items[openEHR-EHR-SECTION.adhoc.v1]/items[openEHR-EHR-SECTION.adhoc.v1 and name/value='TxRecord']/items[openEHR-EHR-EVALUATION.citation.v1]/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1]/items[at0003]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1]/items[at0002]/items[openEHR-EHR-SECTION.adhoc.v1]/items[openEHR-EHR-SECTION.adhoc.v1 and name/value='TxRecord']/items[openEHR-EHR-EVALUATION.citation.v1]/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1]/items[at0002]va;ue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1]/items[at0002]/items[openEHR-EHR-SECTION.adhoc.v1]/items[openEHR-EHR-SECTION.adhoc.v1 and name/value='RxRecord']/items[openEHR-EHR-EVALUATION.citation.v1]/data[at0001]/items[openEHR-EHR-CLUSTER.citation.v1]/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1]/items[at0004]/items[openEHR-EHR-INSTRUCTION.request.v1 and name/value='testOrder']/activities[at0001]/description[at0009]/items[openEHR-EHR-CLUSTER.citation.v1]/items[at0003]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1]/items[at0004]/items[openEHR-EHR-INSTRUCTION.request.v1 and name/value='testOrder']/activities[at0001]/description[at0009]/items[openEHR-EHR-CLUSTER.citation.v1]/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1]/items[at0004]/items[openEHR-EHR-INSTRUCTION.request.v1 and name/value='testOrder']/activities[at0001]/description[at0009]/items[openEHR-EHR-CLUSTER.citation.v1]/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1]/items[at0004]/items[openEHR-EHR-INSTRUCTION.request.v1 and name/value='testOrder']/activities[at0001]/description[at0009]/items[openEHR-EHR-CLUSTER.citation.v1]/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1]/items[at0004]/items[openEHR-EHR-INSTRUCTION.request.v1 and name/value='RxOrder']/activities[at0001]/description[at0009]/items[openEHR-EHR-CLUSTER.citation.v1]/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1]/items[at0004]/items[openEHR-EHR-INSTRUCTION.request.v1 and name/value='RxOrder']/activities[at0001]/description[at0009]/items[openEHR-EHR-CLUSTER.citation.v1]/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1]/items[at0004]/items[openEHR-EHR-INSTRUCTION.request.v1 and name/value='RxOrder']/activities[at0001]/description[at0009]/items[openEHR-EHR-CLUSTER.citation.v1]/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1]/items[at0004]/items[openEHR-EHR-INSTRUCTION.request.v1 and name/value='RxOrder']/activities[at0001]/description[at0009]/items[openEHR-EHR-CLUSTER.citation.v1]/items[at0003]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1]/items[at0004]/items[openEHR-EHR-INSTRUCTION.request.v1 and name/value='TxOrder']/activities[at0001]/description[at0009]/items[openEHR-EHR-CLUSTER.citation.v1]/items[at0002]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1]/items[at0004]/items[openEHR-EHR-INSTRUCTION.request.v1 and name/value='TxOrder']/activities[at0001]/description[at0009]/items[openEHR-EHR-CLUSTER.citation.v1]/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1]/items[at0004]/items[openEHR-EHR-INSTRUCTION.request.v1 and name/value='TxOrder']/activities[at0001]/description[at0009]/items[openEHR-EHR-CLUSTER.citation.v1]/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/content[openEHR-EHR-SECTION.soap.v1]/items[at0004]/items[openEHR-EHR-INSTRUCTION.request.v1 and name/value='TxOrder']/activities[at0001]/description[at0009]/items[openEHR-EHR-CLUSTER.citation.v1]/items[at0003]/value</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1076,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K75" sqref="K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1193,7 +1281,7 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
@@ -1204,19 +1292,19 @@
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
       <c r="I7" s="9" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -1227,19 +1315,19 @@
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
       <c r="I8" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J8" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8" t="s">
         <v>159</v>
-      </c>
-      <c r="K8" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -1250,25 +1338,25 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
       <c r="I9" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="K9" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
@@ -1279,7 +1367,7 @@
         <v>129</v>
       </c>
       <c r="K10" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1439,7 +1527,7 @@
         <v>116</v>
       </c>
       <c r="K18" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1667,130 +1755,105 @@
       <c r="H29" t="s">
         <v>102</v>
       </c>
-      <c r="I29" t="s">
-        <v>103</v>
-      </c>
-      <c r="J29" t="s">
-        <v>129</v>
-      </c>
-      <c r="K29" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="3"/>
+        <v>148</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="H30" t="s">
-        <v>99</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>101</v>
+        <v>25</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="8"/>
+      <c r="I30" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="K30" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="H31" t="s">
-        <v>102</v>
-      </c>
-      <c r="I31" t="s">
-        <v>103</v>
-      </c>
-      <c r="J31" t="s">
-        <v>132</v>
+        <v>151</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="8"/>
+      <c r="I31" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="K31" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="3"/>
+        <v>154</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="H32" t="s">
-        <v>99</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="8"/>
       <c r="I32" s="4" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="K32" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="H33" t="s">
-        <v>102</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="8"/>
       <c r="I33" t="s">
         <v>103</v>
       </c>
       <c r="J33" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K33" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
@@ -1807,15 +1870,15 @@
         <v>101</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K34" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>19</v>
@@ -1833,117 +1896,135 @@
         <v>103</v>
       </c>
       <c r="J35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K35" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="8"/>
+      <c r="I36" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="K36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="8"/>
+      <c r="I37" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="8"/>
+      <c r="I38" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K38" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="8"/>
+      <c r="I39" t="s">
+        <v>103</v>
+      </c>
+      <c r="J39" t="s">
+        <v>129</v>
+      </c>
+      <c r="K39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="3"/>
-      <c r="H36" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="I37" t="s">
-        <v>80</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="F40" s="3"/>
+      <c r="H40" t="s">
+        <v>99</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J40" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="K37" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="3"/>
-      <c r="H39" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="K39" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>140</v>
-      </c>
       <c r="K40" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>19</v>
@@ -1957,137 +2038,130 @@
       <c r="H41" t="s">
         <v>102</v>
       </c>
-      <c r="I41" t="s">
-        <v>103</v>
-      </c>
-      <c r="J41" t="s">
-        <v>132</v>
-      </c>
-      <c r="K41" t="s">
-        <v>143</v>
-      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="3"/>
+        <v>148</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="3"/>
-      <c r="H42" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>144</v>
+        <v>25</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="8"/>
+      <c r="I42" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="K42" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="H43" s="5"/>
+      <c r="B43" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="8"/>
       <c r="I43" s="4" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="K43" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="3"/>
-      <c r="H44" t="s">
-        <v>102</v>
-      </c>
-      <c r="I44" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="8"/>
+      <c r="I44" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="8"/>
+      <c r="I45" t="s">
         <v>103</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="J45" t="s">
         <v>133</v>
       </c>
-      <c r="K44" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="3" t="s">
+      <c r="K45" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="3"/>
-      <c r="H45" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="K45" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-      <c r="H46" s="5"/>
+      <c r="H46" t="s">
+        <v>99</v>
+      </c>
       <c r="I46" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>116</v>
       </c>
       <c r="K46" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>19</v>
@@ -2101,62 +2175,675 @@
       <c r="H47" t="s">
         <v>102</v>
       </c>
-      <c r="I47" t="s">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="8"/>
+      <c r="I48" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="K48" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="8"/>
+      <c r="I49" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K49" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="8"/>
+      <c r="I50" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K50" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="8"/>
+      <c r="I51" t="s">
         <v>103</v>
       </c>
-      <c r="J47" s="4" t="s">
+      <c r="J51" t="s">
         <v>133</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K51" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="H52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="I53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J53" t="s">
+        <v>116</v>
+      </c>
+      <c r="K53" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="H55" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="K55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="K56" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="H57" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="8"/>
+      <c r="I58" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="K58" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="C59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="8"/>
+      <c r="I59" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K59" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="8"/>
+      <c r="I60" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K60" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E61" s="7"/>
+      <c r="F61" s="8"/>
+      <c r="I61" t="s">
+        <v>103</v>
+      </c>
+      <c r="J61" t="s">
+        <v>132</v>
+      </c>
+      <c r="K61" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="3"/>
+      <c r="H62" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K62" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K63" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" s="3"/>
+      <c r="H64" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" s="7"/>
+      <c r="F65" s="8"/>
+      <c r="I65" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="K65" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="8"/>
+      <c r="I66" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K66" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="7"/>
+      <c r="F67" s="8"/>
+      <c r="I67" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K67" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E68" s="7"/>
+      <c r="F68" s="8"/>
+      <c r="I68" t="s">
+        <v>103</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K68" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="3"/>
+      <c r="H69" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K69" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K70" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" s="3"/>
+      <c r="H71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="7"/>
+      <c r="F72" s="8"/>
+      <c r="I72" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="K72" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" s="7"/>
+      <c r="F73" s="8"/>
+      <c r="I73" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K73" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="7"/>
+      <c r="F74" s="8"/>
+      <c r="I74" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K74" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E75" s="7"/>
+      <c r="F75" s="8"/>
+      <c r="I75" t="s">
+        <v>103</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K75" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B77" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="3" t="s">
+      <c r="C77" s="3"/>
+      <c r="D77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="3"/>
-      <c r="H48" t="s">
+      <c r="F77" s="3"/>
+      <c r="H77" t="s">
         <v>97</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="I77" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J48" s="4" t="s">
+      <c r="J77" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="K48" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="4"/>
-    </row>
-    <row r="51" spans="2:9" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="4" t="s">
+      <c r="K77" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="4"/>
+    </row>
+    <row r="80" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I80" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I52" t="s">
+    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I81" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I53" t="s">
+    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I82" t="s">
         <v>110</v>
       </c>
     </row>
